--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pecam1-Cd38.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pecam1-Cd38.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>343.9479473333333</v>
+        <v>361.2779286666667</v>
       </c>
       <c r="H2">
-        <v>1031.843842</v>
+        <v>1083.833786</v>
       </c>
       <c r="I2">
-        <v>0.9666099193889262</v>
+        <v>0.9679392703861037</v>
       </c>
       <c r="J2">
-        <v>0.966609919388926</v>
+        <v>0.9679392703861038</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>50.862619</v>
+        <v>51.282378</v>
       </c>
       <c r="N2">
-        <v>152.587857</v>
+        <v>153.847134</v>
       </c>
       <c r="O2">
-        <v>0.646698465996048</v>
+        <v>0.6626772651633268</v>
       </c>
       <c r="P2">
-        <v>0.646698465996048</v>
+        <v>0.6626772651633267</v>
       </c>
       <c r="Q2">
-        <v>17494.0934010474</v>
+        <v>18527.19130094104</v>
       </c>
       <c r="R2">
-        <v>157446.8406094266</v>
+        <v>166744.7217084694</v>
       </c>
       <c r="S2">
-        <v>0.6251051520853821</v>
+        <v>0.6414313485436491</v>
       </c>
       <c r="T2">
-        <v>0.6251051520853821</v>
+        <v>0.6414313485436491</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>343.9479473333333</v>
+        <v>361.2779286666667</v>
       </c>
       <c r="H3">
-        <v>1031.843842</v>
+        <v>1083.833786</v>
       </c>
       <c r="I3">
-        <v>0.9666099193889262</v>
+        <v>0.9679392703861037</v>
       </c>
       <c r="J3">
-        <v>0.966609919388926</v>
+        <v>0.9679392703861038</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>12.642729</v>
       </c>
       <c r="O3">
-        <v>0.05358246462759976</v>
+        <v>0.05445697206111803</v>
       </c>
       <c r="P3">
-        <v>0.05358246462759976</v>
+        <v>0.05445697206111802</v>
       </c>
       <c r="Q3">
-        <v>1449.480229413869</v>
+        <v>1522.512981937999</v>
       </c>
       <c r="R3">
-        <v>13045.32206472482</v>
+        <v>13702.616837442</v>
       </c>
       <c r="S3">
-        <v>0.05179334181434419</v>
+        <v>0.05271104180427501</v>
       </c>
       <c r="T3">
-        <v>0.05179334181434418</v>
+        <v>0.05271104180427501</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>343.9479473333333</v>
+        <v>361.2779286666667</v>
       </c>
       <c r="H4">
-        <v>1031.843842</v>
+        <v>1083.833786</v>
       </c>
       <c r="I4">
-        <v>0.9666099193889262</v>
+        <v>0.9679392703861037</v>
       </c>
       <c r="J4">
-        <v>0.966609919388926</v>
+        <v>0.9679392703861038</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.5530853333333333</v>
+        <v>0.2493196666666667</v>
       </c>
       <c r="N4">
-        <v>1.659256</v>
+        <v>0.747959</v>
       </c>
       <c r="O4">
-        <v>0.007032265417389921</v>
+        <v>0.003221739734029084</v>
       </c>
       <c r="P4">
-        <v>0.007032265417389922</v>
+        <v>0.003221739734029083</v>
       </c>
       <c r="Q4">
-        <v>190.2325651001725</v>
+        <v>90.07369274919712</v>
       </c>
       <c r="R4">
-        <v>1712.093085901552</v>
+        <v>810.6632347427742</v>
       </c>
       <c r="S4">
-        <v>0.006797457508224805</v>
+        <v>0.003118448407530031</v>
       </c>
       <c r="T4">
-        <v>0.006797457508224805</v>
+        <v>0.003118448407530031</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>343.9479473333333</v>
+        <v>361.2779286666667</v>
       </c>
       <c r="H5">
-        <v>1031.843842</v>
+        <v>1083.833786</v>
       </c>
       <c r="I5">
-        <v>0.9666099193889262</v>
+        <v>0.9679392703861037</v>
       </c>
       <c r="J5">
-        <v>0.966609919388926</v>
+        <v>0.9679392703861038</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.01971966666666</v>
+        <v>21.640716</v>
       </c>
       <c r="N5">
-        <v>69.05915899999999</v>
+        <v>64.92214800000001</v>
       </c>
       <c r="O5">
-        <v>0.2926868039589623</v>
+        <v>0.2796440230415261</v>
       </c>
       <c r="P5">
-        <v>0.2926868039589623</v>
+        <v>0.279644023041526</v>
       </c>
       <c r="Q5">
-        <v>7917.585327538764</v>
+        <v>7818.313051343593</v>
       </c>
       <c r="R5">
-        <v>71258.26794784887</v>
+        <v>70364.81746209234</v>
       </c>
       <c r="S5">
-        <v>0.282913967980975</v>
+        <v>0.2706784316306495</v>
       </c>
       <c r="T5">
-        <v>0.282913967980975</v>
+        <v>0.2706784316306495</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>17.910552</v>
       </c>
       <c r="I6">
-        <v>0.01677823379880302</v>
+        <v>0.015995373883918</v>
       </c>
       <c r="J6">
-        <v>0.01677823379880302</v>
+        <v>0.015995373883918</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>50.862619</v>
+        <v>51.282378</v>
       </c>
       <c r="N6">
-        <v>152.587857</v>
+        <v>153.847134</v>
       </c>
       <c r="O6">
-        <v>0.646698465996048</v>
+        <v>0.6626772651633268</v>
       </c>
       <c r="P6">
-        <v>0.646698465996048</v>
+        <v>0.6626772651633267</v>
       </c>
       <c r="Q6">
-        <v>303.659194151896</v>
+        <v>306.165232617552</v>
       </c>
       <c r="R6">
-        <v>2732.932747367064</v>
+        <v>2755.487093557968</v>
       </c>
       <c r="S6">
-        <v>0.01085045805980896</v>
+        <v>0.01059977062065968</v>
       </c>
       <c r="T6">
-        <v>0.01085045805980896</v>
+        <v>0.01059977062065968</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>17.910552</v>
       </c>
       <c r="I7">
-        <v>0.01677823379880302</v>
+        <v>0.015995373883918</v>
       </c>
       <c r="J7">
-        <v>0.01677823379880302</v>
+        <v>0.015995373883918</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>12.642729</v>
       </c>
       <c r="O7">
-        <v>0.05358246462759976</v>
+        <v>0.05445697206111803</v>
       </c>
       <c r="P7">
-        <v>0.05358246462759976</v>
+        <v>0.05445697206111802</v>
       </c>
       <c r="Q7">
         <v>25.159806130712</v>
@@ -883,10 +883,10 @@
         <v>226.438255176408</v>
       </c>
       <c r="S7">
-        <v>0.0008990191190379618</v>
+        <v>0.0008710596287036593</v>
       </c>
       <c r="T7">
-        <v>0.0008990191190379618</v>
+        <v>0.0008710596287036592</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>17.910552</v>
       </c>
       <c r="I8">
-        <v>0.01677823379880302</v>
+        <v>0.015995373883918</v>
       </c>
       <c r="J8">
-        <v>0.01677823379880302</v>
+        <v>0.015995373883918</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.5530853333333333</v>
+        <v>0.2493196666666667</v>
       </c>
       <c r="N8">
-        <v>1.659256</v>
+        <v>0.747959</v>
       </c>
       <c r="O8">
-        <v>0.007032265417389921</v>
+        <v>0.003221739734029084</v>
       </c>
       <c r="P8">
-        <v>0.007032265417389922</v>
+        <v>0.003221739734029083</v>
       </c>
       <c r="Q8">
-        <v>3.302021207701333</v>
+        <v>1.488484284818667</v>
       </c>
       <c r="R8">
-        <v>29.718190869312</v>
+        <v>13.396358563368</v>
       </c>
       <c r="S8">
-        <v>0.0001179889933082052</v>
+        <v>5.153293160246972E-05</v>
       </c>
       <c r="T8">
-        <v>0.0001179889933082052</v>
+        <v>5.153293160246971E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>17.910552</v>
       </c>
       <c r="I9">
-        <v>0.01677823379880302</v>
+        <v>0.015995373883918</v>
       </c>
       <c r="J9">
-        <v>0.01677823379880302</v>
+        <v>0.015995373883918</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>23.01971966666666</v>
+        <v>21.640716</v>
       </c>
       <c r="N9">
-        <v>69.05915899999999</v>
+        <v>64.92214800000001</v>
       </c>
       <c r="O9">
-        <v>0.2926868039589623</v>
+        <v>0.2796440230415261</v>
       </c>
       <c r="P9">
-        <v>0.2926868039589623</v>
+        <v>0.279644023041526</v>
       </c>
       <c r="Q9">
-        <v>137.4319620384186</v>
+        <v>129.199056411744</v>
       </c>
       <c r="R9">
-        <v>1236.887658345768</v>
+        <v>1162.791507705696</v>
       </c>
       <c r="S9">
-        <v>0.004910767626647896</v>
+        <v>0.004473010702952189</v>
       </c>
       <c r="T9">
-        <v>0.004910767626647896</v>
+        <v>0.004473010702952188</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.239611333333334</v>
+        <v>3.890485666666667</v>
       </c>
       <c r="H10">
-        <v>9.718834000000001</v>
+        <v>11.671457</v>
       </c>
       <c r="I10">
-        <v>0.009104402204005551</v>
+        <v>0.01042342628440887</v>
       </c>
       <c r="J10">
-        <v>0.00910440220400555</v>
+        <v>0.01042342628440887</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>50.862619</v>
+        <v>51.282378</v>
       </c>
       <c r="N10">
-        <v>152.587857</v>
+        <v>153.847134</v>
       </c>
       <c r="O10">
-        <v>0.646698465996048</v>
+        <v>0.6626772651633268</v>
       </c>
       <c r="P10">
-        <v>0.646698465996048</v>
+        <v>0.6626772651633267</v>
       </c>
       <c r="Q10">
-        <v>164.7751169554153</v>
+        <v>199.513356561582</v>
       </c>
       <c r="R10">
-        <v>1482.976052598738</v>
+        <v>1795.620209054238</v>
       </c>
       <c r="S10">
-        <v>0.005887802939141428</v>
+        <v>0.006907367623783609</v>
       </c>
       <c r="T10">
-        <v>0.005887802939141427</v>
+        <v>0.006907367623783609</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.239611333333334</v>
+        <v>3.890485666666667</v>
       </c>
       <c r="H11">
-        <v>9.718834000000001</v>
+        <v>11.671457</v>
       </c>
       <c r="I11">
-        <v>0.009104402204005551</v>
+        <v>0.01042342628440887</v>
       </c>
       <c r="J11">
-        <v>0.00910440220400555</v>
+        <v>0.01042342628440887</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>12.642729</v>
       </c>
       <c r="O11">
-        <v>0.05358246462759976</v>
+        <v>0.05445697206111803</v>
       </c>
       <c r="P11">
-        <v>0.05358246462759976</v>
+        <v>0.05445697206111802</v>
       </c>
       <c r="Q11">
-        <v>13.65250938422067</v>
+        <v>16.39545198735033</v>
       </c>
       <c r="R11">
-        <v>122.872584457986</v>
+        <v>147.559067886153</v>
       </c>
       <c r="S11">
-        <v>0.0004878363090515687</v>
+        <v>0.0005676282339511773</v>
       </c>
       <c r="T11">
-        <v>0.0004878363090515686</v>
+        <v>0.0005676282339511773</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.239611333333334</v>
+        <v>3.890485666666667</v>
       </c>
       <c r="H12">
-        <v>9.718834000000001</v>
+        <v>11.671457</v>
       </c>
       <c r="I12">
-        <v>0.009104402204005551</v>
+        <v>0.01042342628440887</v>
       </c>
       <c r="J12">
-        <v>0.00910440220400555</v>
+        <v>0.01042342628440887</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.5530853333333333</v>
+        <v>0.2493196666666667</v>
       </c>
       <c r="N12">
-        <v>1.659256</v>
+        <v>0.747959</v>
       </c>
       <c r="O12">
-        <v>0.007032265417389921</v>
+        <v>0.003221739734029084</v>
       </c>
       <c r="P12">
-        <v>0.007032265417389922</v>
+        <v>0.003221739734029083</v>
       </c>
       <c r="Q12">
-        <v>1.791781514167111</v>
+        <v>0.9699745895847779</v>
       </c>
       <c r="R12">
-        <v>16.126033627504</v>
+        <v>8.729771306263</v>
       </c>
       <c r="S12">
-        <v>6.402457276523682E-05</v>
+        <v>3.35815666252032E-05</v>
       </c>
       <c r="T12">
-        <v>6.402457276523682E-05</v>
+        <v>3.35815666252032E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.239611333333334</v>
+        <v>3.890485666666667</v>
       </c>
       <c r="H13">
-        <v>9.718834000000001</v>
+        <v>11.671457</v>
       </c>
       <c r="I13">
-        <v>0.009104402204005551</v>
+        <v>0.01042342628440887</v>
       </c>
       <c r="J13">
-        <v>0.00910440220400555</v>
+        <v>0.01042342628440887</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>23.01971966666666</v>
+        <v>21.640716</v>
       </c>
       <c r="N13">
-        <v>69.05915899999999</v>
+        <v>64.92214800000001</v>
       </c>
       <c r="O13">
-        <v>0.2926868039589623</v>
+        <v>0.2796440230415261</v>
       </c>
       <c r="P13">
-        <v>0.2926868039589623</v>
+        <v>0.279644023041526</v>
       </c>
       <c r="Q13">
-        <v>74.57494472228956</v>
+        <v>84.19289541440401</v>
       </c>
       <c r="R13">
-        <v>671.174502500606</v>
+        <v>757.7360587296361</v>
       </c>
       <c r="S13">
-        <v>0.002664738383047317</v>
+        <v>0.002914848860048884</v>
       </c>
       <c r="T13">
-        <v>0.002664738383047316</v>
+        <v>0.002914848860048883</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.671367333333334</v>
+        <v>2.105818666666667</v>
       </c>
       <c r="H14">
-        <v>8.014102000000001</v>
+        <v>6.317456</v>
       </c>
       <c r="I14">
-        <v>0.007507444608265281</v>
+        <v>0.005641929445569353</v>
       </c>
       <c r="J14">
-        <v>0.00750744460826528</v>
+        <v>0.005641929445569354</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>50.862619</v>
+        <v>51.282378</v>
       </c>
       <c r="N14">
-        <v>152.587857</v>
+        <v>153.847134</v>
       </c>
       <c r="O14">
-        <v>0.646698465996048</v>
+        <v>0.6626772651633268</v>
       </c>
       <c r="P14">
-        <v>0.646698465996048</v>
+        <v>0.6626772651633267</v>
       </c>
       <c r="Q14">
-        <v>135.8727388843793</v>
+        <v>107.991388863456</v>
       </c>
       <c r="R14">
-        <v>1222.854649959414</v>
+        <v>971.9224997711041</v>
       </c>
       <c r="S14">
-        <v>0.004855052911715459</v>
+        <v>0.003738778375234343</v>
       </c>
       <c r="T14">
-        <v>0.004855052911715458</v>
+        <v>0.003738778375234343</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.671367333333334</v>
+        <v>2.105818666666667</v>
       </c>
       <c r="H15">
-        <v>8.014102000000001</v>
+        <v>6.317456</v>
       </c>
       <c r="I15">
-        <v>0.007507444608265281</v>
+        <v>0.005641929445569353</v>
       </c>
       <c r="J15">
-        <v>0.00750744460826528</v>
+        <v>0.005641929445569354</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>12.642729</v>
       </c>
       <c r="O15">
-        <v>0.05358246462759976</v>
+        <v>0.05445697206111803</v>
       </c>
       <c r="P15">
-        <v>0.05358246462759976</v>
+        <v>0.05445697206111802</v>
       </c>
       <c r="Q15">
-        <v>11.25779108492867</v>
+        <v>8.874431575269332</v>
       </c>
       <c r="R15">
-        <v>101.320119764358</v>
+        <v>79.869884177424</v>
       </c>
       <c r="S15">
-        <v>0.000402267385166039</v>
+        <v>0.0003072423941881694</v>
       </c>
       <c r="T15">
-        <v>0.0004022673851660389</v>
+        <v>0.0003072423941881694</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.671367333333334</v>
+        <v>2.105818666666667</v>
       </c>
       <c r="H16">
-        <v>8.014102000000001</v>
+        <v>6.317456</v>
       </c>
       <c r="I16">
-        <v>0.007507444608265281</v>
+        <v>0.005641929445569353</v>
       </c>
       <c r="J16">
-        <v>0.00750744460826528</v>
+        <v>0.005641929445569354</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.5530853333333333</v>
+        <v>0.2493196666666667</v>
       </c>
       <c r="N16">
-        <v>1.659256</v>
+        <v>0.747959</v>
       </c>
       <c r="O16">
-        <v>0.007032265417389921</v>
+        <v>0.003221739734029084</v>
       </c>
       <c r="P16">
-        <v>0.007032265417389922</v>
+        <v>0.003221739734029083</v>
       </c>
       <c r="Q16">
-        <v>1.477494092012445</v>
+        <v>0.5250220080337777</v>
       </c>
       <c r="R16">
-        <v>13.297446828112</v>
+        <v>4.725198072304</v>
       </c>
       <c r="S16">
-        <v>5.279434309167436E-05</v>
+        <v>1.817682827137946E-05</v>
       </c>
       <c r="T16">
-        <v>5.279434309167436E-05</v>
+        <v>1.817682827137946E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.671367333333334</v>
+        <v>2.105818666666667</v>
       </c>
       <c r="H17">
-        <v>8.014102000000001</v>
+        <v>6.317456</v>
       </c>
       <c r="I17">
-        <v>0.007507444608265281</v>
+        <v>0.005641929445569353</v>
       </c>
       <c r="J17">
-        <v>0.00750744460826528</v>
+        <v>0.005641929445569354</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.01971966666666</v>
+        <v>21.640716</v>
       </c>
       <c r="N17">
-        <v>69.05915899999999</v>
+        <v>64.92214800000001</v>
       </c>
       <c r="O17">
-        <v>0.2926868039589623</v>
+        <v>0.2796440230415261</v>
       </c>
       <c r="P17">
-        <v>0.2926868039589623</v>
+        <v>0.279644023041526</v>
       </c>
       <c r="Q17">
-        <v>61.49412714002423</v>
+        <v>45.571423712832</v>
       </c>
       <c r="R17">
-        <v>553.447144260218</v>
+        <v>410.142813415488</v>
       </c>
       <c r="S17">
-        <v>0.002197329968292109</v>
+        <v>0.001577731847875461</v>
       </c>
       <c r="T17">
-        <v>0.002197329968292108</v>
+        <v>0.00157773184787546</v>
       </c>
     </row>
   </sheetData>
